--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl12-Cd4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl12-Cd4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H2">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I2">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J2">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.148853</v>
+        <v>0.5155866666666666</v>
       </c>
       <c r="N2">
-        <v>3.446559</v>
+        <v>1.54676</v>
       </c>
       <c r="O2">
-        <v>0.04807783529489358</v>
+        <v>0.02502801465018128</v>
       </c>
       <c r="P2">
-        <v>0.04901969401652802</v>
+        <v>0.02530258166783823</v>
       </c>
       <c r="Q2">
-        <v>180.491808176084</v>
+        <v>72.29036425522666</v>
       </c>
       <c r="R2">
-        <v>1624.426273584756</v>
+        <v>650.61327829704</v>
       </c>
       <c r="S2">
-        <v>0.01083906157273552</v>
+        <v>0.005890151046314592</v>
       </c>
       <c r="T2">
-        <v>0.01156331395748402</v>
+        <v>0.005981000743887109</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H3">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I3">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J3">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.697325333333333</v>
+        <v>5.697325333333334</v>
       </c>
       <c r="N3">
         <v>17.091976</v>
       </c>
       <c r="O3">
-        <v>0.2384248193610711</v>
+        <v>0.2765640601829288</v>
       </c>
       <c r="P3">
-        <v>0.2430956306443152</v>
+        <v>0.2795980750761146</v>
       </c>
       <c r="Q3">
-        <v>895.0845331654649</v>
+        <v>798.8215178059894</v>
       </c>
       <c r="R3">
-        <v>8055.760798489184</v>
+        <v>7189.393660253905</v>
       </c>
       <c r="S3">
-        <v>0.05375244708235598</v>
+        <v>0.06508722770176623</v>
       </c>
       <c r="T3">
-        <v>0.05734411760883298</v>
+        <v>0.06609113318840713</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H4">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I4">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J4">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.853141</v>
+        <v>5.480197666666666</v>
       </c>
       <c r="N4">
-        <v>20.559423</v>
+        <v>16.440593</v>
       </c>
       <c r="O4">
-        <v>0.286794032178775</v>
+        <v>0.2660240777248363</v>
       </c>
       <c r="P4">
-        <v>0.2924124103537379</v>
+        <v>0.268942464926808</v>
       </c>
       <c r="Q4">
-        <v>1076.670218710015</v>
+        <v>768.3780654671245</v>
       </c>
       <c r="R4">
-        <v>9690.031968390131</v>
+        <v>6915.402589204122</v>
       </c>
       <c r="S4">
-        <v>0.06465719919401201</v>
+        <v>0.06260672377161444</v>
       </c>
       <c r="T4">
-        <v>0.06897751146396097</v>
+        <v>0.06357236996233753</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H5">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I5">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J5">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>1.377387</v>
+        <v>0.6706255</v>
       </c>
       <c r="N5">
-        <v>2.754774</v>
+        <v>1.341251</v>
       </c>
       <c r="O5">
-        <v>0.05764165243362517</v>
+        <v>0.03255403198709266</v>
       </c>
       <c r="P5">
-        <v>0.0391805794024379</v>
+        <v>0.02194077488722859</v>
       </c>
       <c r="Q5">
-        <v>216.3958924146361</v>
+        <v>94.02834636370899</v>
       </c>
       <c r="R5">
-        <v>1298.375354487816</v>
+        <v>564.170078182254</v>
       </c>
       <c r="S5">
-        <v>0.01299520696075604</v>
+        <v>0.007661341430817153</v>
       </c>
       <c r="T5">
-        <v>0.009242353502120252</v>
+        <v>0.005186339980823999</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H6">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I6">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J6">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>8.818982666666667</v>
+        <v>8.236647</v>
       </c>
       <c r="N6">
-        <v>26.456948</v>
+        <v>24.709941</v>
       </c>
       <c r="O6">
-        <v>0.3690616607316352</v>
+        <v>0.3998298154549608</v>
       </c>
       <c r="P6">
-        <v>0.3762916855829809</v>
+        <v>0.4042161034420106</v>
       </c>
       <c r="Q6">
-        <v>1385.515925693026</v>
+        <v>1154.859600464946</v>
       </c>
       <c r="R6">
-        <v>12469.64333123723</v>
+        <v>10393.73640418451</v>
       </c>
       <c r="S6">
-        <v>0.08320428821867315</v>
+        <v>0.09409687659075863</v>
       </c>
       <c r="T6">
-        <v>0.08876389351838422</v>
+        <v>0.09554822694044751</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1340.005157</v>
       </c>
       <c r="I7">
-        <v>0.6409718547957218</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J7">
-        <v>0.6706623143839581</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>1.148853</v>
+        <v>0.5155866666666666</v>
       </c>
       <c r="N7">
-        <v>3.446559</v>
+        <v>1.54676</v>
       </c>
       <c r="O7">
-        <v>0.04807783529489358</v>
+        <v>0.02502801465018128</v>
       </c>
       <c r="P7">
-        <v>0.04901969401652802</v>
+        <v>0.02530258166783823</v>
       </c>
       <c r="Q7">
-        <v>513.1563148783071</v>
+        <v>230.2962640712578</v>
       </c>
       <c r="R7">
-        <v>4618.406833904764</v>
+        <v>2072.66637664132</v>
       </c>
       <c r="S7">
-        <v>0.03081653926353116</v>
+        <v>0.01876432349949856</v>
       </c>
       <c r="T7">
-        <v>0.03287566143951814</v>
+        <v>0.01905374445011221</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1340.005157</v>
       </c>
       <c r="I8">
-        <v>0.6409718547957218</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J8">
-        <v>0.6706623143839581</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.697325333333333</v>
+        <v>5.697325333333334</v>
       </c>
       <c r="N8">
         <v>17.091976</v>
       </c>
       <c r="O8">
-        <v>0.2384248193610711</v>
+        <v>0.2765640601829288</v>
       </c>
       <c r="P8">
-        <v>0.2430956306443152</v>
+        <v>0.2795980750761146</v>
       </c>
       <c r="Q8">
-        <v>2544.815109257803</v>
+        <v>2544.815109257804</v>
       </c>
       <c r="R8">
-        <v>22903.33598332023</v>
+        <v>22903.33598332024</v>
       </c>
       <c r="S8">
-        <v>0.1528235986952007</v>
+        <v>0.2073491471913325</v>
       </c>
       <c r="T8">
-        <v>0.1630350782645443</v>
+        <v>0.2105473007133951</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1340.005157</v>
       </c>
       <c r="I9">
-        <v>0.6409718547957218</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J9">
-        <v>0.6706623143839581</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.853141</v>
+        <v>5.480197666666666</v>
       </c>
       <c r="N9">
-        <v>20.559423</v>
+        <v>16.440593</v>
       </c>
       <c r="O9">
-        <v>0.286794032178775</v>
+        <v>0.2660240777248363</v>
       </c>
       <c r="P9">
-        <v>0.2924124103537379</v>
+        <v>0.268942464926808</v>
       </c>
       <c r="Q9">
-        <v>3061.081427216046</v>
+        <v>2447.831044904233</v>
       </c>
       <c r="R9">
-        <v>27549.73284494441</v>
+        <v>22030.4794041381</v>
       </c>
       <c r="S9">
-        <v>0.1838269027499733</v>
+        <v>0.1994469766321805</v>
       </c>
       <c r="T9">
-        <v>0.1961099838824295</v>
+        <v>0.2025232470650286</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>1340.005157</v>
       </c>
       <c r="I10">
-        <v>0.6409718547957218</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J10">
-        <v>0.6706623143839581</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>1.377387</v>
+        <v>0.6706255</v>
       </c>
       <c r="N10">
-        <v>2.754774</v>
+        <v>1.341251</v>
       </c>
       <c r="O10">
-        <v>0.05764165243362517</v>
+        <v>0.03255403198709266</v>
       </c>
       <c r="P10">
-        <v>0.0391805794024379</v>
+        <v>0.02194077488722859</v>
       </c>
       <c r="Q10">
-        <v>615.2352277282531</v>
+        <v>299.5472094719012</v>
       </c>
       <c r="R10">
-        <v>3691.411366369518</v>
+        <v>1797.283256831407</v>
       </c>
       <c r="S10">
-        <v>0.03694667687387106</v>
+        <v>0.02440682554956097</v>
       </c>
       <c r="T10">
-        <v>0.02627693806094344</v>
+        <v>0.0165221843061997</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>1340.005157</v>
       </c>
       <c r="I11">
-        <v>0.6409718547957218</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J11">
-        <v>0.6706623143839581</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>8.818982666666667</v>
+        <v>8.236647</v>
       </c>
       <c r="N11">
-        <v>26.456948</v>
+        <v>24.709941</v>
       </c>
       <c r="O11">
-        <v>0.3690616607316352</v>
+        <v>0.3998298154549608</v>
       </c>
       <c r="P11">
-        <v>0.3762916855829809</v>
+        <v>0.4042161034420106</v>
       </c>
       <c r="Q11">
-        <v>3939.160750942315</v>
+        <v>3679.049818796193</v>
       </c>
       <c r="R11">
-        <v>35452.44675848084</v>
+        <v>33111.44836916574</v>
       </c>
       <c r="S11">
-        <v>0.2365581372131456</v>
+        <v>0.2997655270226299</v>
       </c>
       <c r="T11">
-        <v>0.2523646527365226</v>
+        <v>0.3043891109101283</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4741663333333333</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H12">
-        <v>1.422499</v>
+        <v>2.227382</v>
       </c>
       <c r="I12">
-        <v>0.0006804315772309073</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J12">
-        <v>0.0007119498507637952</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>1.148853</v>
+        <v>0.5155866666666666</v>
       </c>
       <c r="N12">
-        <v>3.446559</v>
+        <v>1.54676</v>
       </c>
       <c r="O12">
-        <v>0.04807783529489358</v>
+        <v>0.02502801465018128</v>
       </c>
       <c r="P12">
-        <v>0.04901969401652802</v>
+        <v>0.02530258166783823</v>
       </c>
       <c r="Q12">
-        <v>0.544747414549</v>
+        <v>0.3828028202577777</v>
       </c>
       <c r="R12">
-        <v>4.902726730941</v>
+        <v>3.44522538232</v>
       </c>
       <c r="S12">
-        <v>3.271367729955222E-05</v>
+        <v>3.119041459402391E-05</v>
       </c>
       <c r="T12">
-        <v>3.489956383955403E-05</v>
+        <v>3.167149559020677E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4741663333333333</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H13">
-        <v>1.422499</v>
+        <v>2.227382</v>
       </c>
       <c r="I13">
-        <v>0.0006804315772309073</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J13">
-        <v>0.0007119498507637952</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.697325333333333</v>
+        <v>5.697325333333334</v>
       </c>
       <c r="N13">
         <v>17.091976</v>
       </c>
       <c r="O13">
-        <v>0.2384248193610711</v>
+        <v>0.2765640601829288</v>
       </c>
       <c r="P13">
-        <v>0.2430956306443152</v>
+        <v>0.2795980750761146</v>
       </c>
       <c r="Q13">
-        <v>2.701479863113777</v>
+        <v>4.230039965203557</v>
       </c>
       <c r="R13">
-        <v>24.313318768024</v>
+        <v>38.07035968683201</v>
       </c>
       <c r="S13">
-        <v>0.0001622317758888478</v>
+        <v>0.0003446596871338195</v>
       </c>
       <c r="T13">
-        <v>0.0001730718979585509</v>
+        <v>0.0003499757186065841</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4741663333333333</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H14">
-        <v>1.422499</v>
+        <v>2.227382</v>
       </c>
       <c r="I14">
-        <v>0.0006804315772309073</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J14">
-        <v>0.0007119498507637952</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.853141</v>
+        <v>5.480197666666666</v>
       </c>
       <c r="N14">
-        <v>20.559423</v>
+        <v>16.440593</v>
       </c>
       <c r="O14">
-        <v>0.286794032178775</v>
+        <v>0.2660240777248363</v>
       </c>
       <c r="P14">
-        <v>0.2924124103537379</v>
+        <v>0.268942464926808</v>
       </c>
       <c r="Q14">
-        <v>3.249528739786333</v>
+        <v>4.068831213058444</v>
       </c>
       <c r="R14">
-        <v>29.245758658077</v>
+        <v>36.619480917526</v>
       </c>
       <c r="S14">
-        <v>0.0001951437156558155</v>
+        <v>0.000331524549278238</v>
       </c>
       <c r="T14">
-        <v>0.0002081829719128253</v>
+        <v>0.0003366379843672479</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4741663333333333</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H15">
-        <v>1.422499</v>
+        <v>2.227382</v>
       </c>
       <c r="I15">
-        <v>0.0006804315772309073</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J15">
-        <v>0.0007119498507637952</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>1.377387</v>
+        <v>0.6706255</v>
       </c>
       <c r="N15">
-        <v>2.754774</v>
+        <v>1.341251</v>
       </c>
       <c r="O15">
-        <v>0.05764165243362517</v>
+        <v>0.03255403198709266</v>
       </c>
       <c r="P15">
-        <v>0.0391805794024379</v>
+        <v>0.02194077488722859</v>
       </c>
       <c r="Q15">
-        <v>0.6531105433710001</v>
+        <v>0.4979130558136666</v>
       </c>
       <c r="R15">
-        <v>3.918663260226</v>
+        <v>2.987478334882</v>
       </c>
       <c r="S15">
-        <v>3.922120047960734E-05</v>
+        <v>4.05694885741639E-05</v>
       </c>
       <c r="T15">
-        <v>2.789460765840469E-05</v>
+        <v>2.746348827992734E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4741663333333333</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H16">
-        <v>1.422499</v>
+        <v>2.227382</v>
       </c>
       <c r="I16">
-        <v>0.0006804315772309073</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J16">
-        <v>0.0007119498507637952</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>8.818982666666667</v>
+        <v>8.236647</v>
       </c>
       <c r="N16">
-        <v>26.456948</v>
+        <v>24.709941</v>
       </c>
       <c r="O16">
-        <v>0.3690616607316352</v>
+        <v>0.3998298154549608</v>
       </c>
       <c r="P16">
-        <v>0.3762916855829809</v>
+        <v>0.4042161034420106</v>
       </c>
       <c r="Q16">
-        <v>4.181664674783556</v>
+        <v>6.115386422717999</v>
       </c>
       <c r="R16">
-        <v>37.634982073052</v>
+        <v>55.038477804462</v>
       </c>
       <c r="S16">
-        <v>0.0002511212079070845</v>
+        <v>0.0004982759473892975</v>
       </c>
       <c r="T16">
-        <v>0.0002679008093944602</v>
+        <v>0.0005059613562645591</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>92.55087450000001</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H17">
-        <v>185.101749</v>
+        <v>15.67816</v>
       </c>
       <c r="I17">
-        <v>0.1328110687813519</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J17">
-        <v>0.09264200718360258</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>1.148853</v>
+        <v>0.5155866666666666</v>
       </c>
       <c r="N17">
-        <v>3.446559</v>
+        <v>1.54676</v>
       </c>
       <c r="O17">
-        <v>0.04807783529489358</v>
+        <v>0.02502801465018128</v>
       </c>
       <c r="P17">
-        <v>0.04901969401652802</v>
+        <v>0.02530258166783823</v>
       </c>
       <c r="Q17">
-        <v>106.3273498219485</v>
+        <v>4.041725126933334</v>
       </c>
       <c r="R17">
-        <v>637.9640989316911</v>
+        <v>24.2503507616</v>
       </c>
       <c r="S17">
-        <v>0.00638526869020862</v>
+        <v>0.0003293159708155867</v>
       </c>
       <c r="T17">
-        <v>0.004541282845217189</v>
+        <v>0.000222930227191634</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>92.55087450000001</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H18">
-        <v>185.101749</v>
+        <v>15.67816</v>
       </c>
       <c r="I18">
-        <v>0.1328110687813519</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J18">
-        <v>0.09264200718360258</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.697325333333333</v>
+        <v>5.697325333333334</v>
       </c>
       <c r="N18">
         <v>17.091976</v>
       </c>
       <c r="O18">
-        <v>0.2384248193610711</v>
+        <v>0.2765640601829288</v>
       </c>
       <c r="P18">
-        <v>0.2430956306443152</v>
+        <v>0.2795980750761146</v>
       </c>
       <c r="Q18">
-        <v>527.2924419110039</v>
+        <v>44.66178907402668</v>
       </c>
       <c r="R18">
-        <v>3163.754651466024</v>
+        <v>267.9707344441601</v>
       </c>
       <c r="S18">
-        <v>0.03166545508334461</v>
+        <v>0.00363900066564736</v>
       </c>
       <c r="T18">
-        <v>0.02252086716045305</v>
+        <v>0.002463419077836223</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>92.55087450000001</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H19">
-        <v>185.101749</v>
+        <v>15.67816</v>
       </c>
       <c r="I19">
-        <v>0.1328110687813519</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J19">
-        <v>0.09264200718360258</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.853141</v>
+        <v>5.480197666666666</v>
       </c>
       <c r="N19">
-        <v>20.559423</v>
+        <v>16.440593</v>
       </c>
       <c r="O19">
-        <v>0.286794032178775</v>
+        <v>0.2660240777248363</v>
       </c>
       <c r="P19">
-        <v>0.2924124103537379</v>
+        <v>0.268942464926808</v>
       </c>
       <c r="Q19">
-        <v>634.2641926218046</v>
+        <v>42.95970792481334</v>
       </c>
       <c r="R19">
-        <v>3805.585155730827</v>
+        <v>257.75824754888</v>
       </c>
       <c r="S19">
-        <v>0.03808942193377654</v>
+        <v>0.003500316690746424</v>
       </c>
       <c r="T19">
-        <v>0.02708967262056553</v>
+        <v>0.002369537053360048</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>92.55087450000001</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H20">
-        <v>185.101749</v>
+        <v>15.67816</v>
       </c>
       <c r="I20">
-        <v>0.1328110687813519</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J20">
-        <v>0.09264200718360258</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>1.377387</v>
+        <v>0.6706255</v>
       </c>
       <c r="N20">
-        <v>2.754774</v>
+        <v>1.341251</v>
       </c>
       <c r="O20">
-        <v>0.05764165243362517</v>
+        <v>0.03255403198709266</v>
       </c>
       <c r="P20">
-        <v>0.0391805794024379</v>
+        <v>0.02194077488722859</v>
       </c>
       <c r="Q20">
-        <v>127.4783713749315</v>
+        <v>5.25708694454</v>
       </c>
       <c r="R20">
-        <v>509.9134854997261</v>
+        <v>21.02834777816</v>
       </c>
       <c r="S20">
-        <v>0.007655449466032973</v>
+        <v>0.000428342511287184</v>
       </c>
       <c r="T20">
-        <v>0.003629767518458363</v>
+        <v>0.0001933107852226631</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>92.55087450000001</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H21">
-        <v>185.101749</v>
+        <v>15.67816</v>
       </c>
       <c r="I21">
-        <v>0.1328110687813519</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J21">
-        <v>0.09264200718360258</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>8.818982666666667</v>
+        <v>8.236647</v>
       </c>
       <c r="N21">
-        <v>26.456948</v>
+        <v>24.709941</v>
       </c>
       <c r="O21">
-        <v>0.3690616607316352</v>
+        <v>0.3998298154549608</v>
       </c>
       <c r="P21">
-        <v>0.3762916855829809</v>
+        <v>0.4042161034420106</v>
       </c>
       <c r="Q21">
-        <v>816.2045580003421</v>
+        <v>64.56773476476</v>
       </c>
       <c r="R21">
-        <v>4897.227348002052</v>
+        <v>387.4064085885601</v>
       </c>
       <c r="S21">
-        <v>0.04901547360798916</v>
+        <v>0.005260918441911394</v>
       </c>
       <c r="T21">
-        <v>0.03486041703890844</v>
+        <v>0.003561375236637793</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.06163166666666667</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H22">
-        <v>0.184895</v>
+        <v>0.930769</v>
       </c>
       <c r="I22">
-        <v>8.844181716268947E-05</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J22">
-        <v>9.253853089314783E-05</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1798,28 +1798,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>1.148853</v>
+        <v>0.5155866666666666</v>
       </c>
       <c r="N22">
-        <v>3.446559</v>
+        <v>1.54676</v>
       </c>
       <c r="O22">
-        <v>0.04807783529489358</v>
+        <v>0.02502801465018128</v>
       </c>
       <c r="P22">
-        <v>0.04901969401652802</v>
+        <v>0.02530258166783823</v>
       </c>
       <c r="Q22">
-        <v>0.07080572514500001</v>
+        <v>0.1599640287155555</v>
       </c>
       <c r="R22">
-        <v>0.637251526305</v>
+        <v>1.43967625844</v>
       </c>
       <c r="S22">
-        <v>4.252091118728877E-06</v>
+        <v>1.303371895851948E-05</v>
       </c>
       <c r="T22">
-        <v>4.536210469121132E-06</v>
+        <v>1.323475105707111E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.06163166666666667</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H23">
-        <v>0.184895</v>
+        <v>0.930769</v>
       </c>
       <c r="I23">
-        <v>8.844181716268947E-05</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J23">
-        <v>9.253853089314783E-05</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.697325333333333</v>
+        <v>5.697325333333334</v>
       </c>
       <c r="N23">
         <v>17.091976</v>
       </c>
       <c r="O23">
-        <v>0.2384248193610711</v>
+        <v>0.2765640601829288</v>
       </c>
       <c r="P23">
-        <v>0.2430956306443152</v>
+        <v>0.2795980750761146</v>
       </c>
       <c r="Q23">
-        <v>0.3511356558355555</v>
+        <v>1.767631267727111</v>
       </c>
       <c r="R23">
-        <v>3.16022090252</v>
+        <v>15.908681409544</v>
       </c>
       <c r="S23">
-        <v>2.108672428097911E-05</v>
+        <v>0.0001440249370489023</v>
       </c>
       <c r="T23">
-        <v>2.249571252636822E-05</v>
+        <v>0.000146246377869504</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.06163166666666667</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H24">
-        <v>0.184895</v>
+        <v>0.930769</v>
       </c>
       <c r="I24">
-        <v>8.844181716268947E-05</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J24">
-        <v>9.253853089314783E-05</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.853141</v>
+        <v>5.480197666666666</v>
       </c>
       <c r="N24">
-        <v>20.559423</v>
+        <v>16.440593</v>
       </c>
       <c r="O24">
-        <v>0.286794032178775</v>
+        <v>0.2660240777248363</v>
       </c>
       <c r="P24">
-        <v>0.2924124103537379</v>
+        <v>0.268942464926808</v>
       </c>
       <c r="Q24">
-        <v>0.4223705017316667</v>
+        <v>1.700266034001889</v>
       </c>
       <c r="R24">
-        <v>3.801334515585</v>
+        <v>15.302394306017</v>
       </c>
       <c r="S24">
-        <v>2.53645853573057E-05</v>
+        <v>0.0001385360810167076</v>
       </c>
       <c r="T24">
-        <v>2.705941486905919E-05</v>
+        <v>0.0001406728617145684</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.06163166666666667</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H25">
-        <v>0.184895</v>
+        <v>0.930769</v>
       </c>
       <c r="I25">
-        <v>8.844181716268947E-05</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J25">
-        <v>9.253853089314783E-05</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M25">
-        <v>1.377387</v>
+        <v>0.6706255</v>
       </c>
       <c r="N25">
-        <v>2.754774</v>
+        <v>1.341251</v>
       </c>
       <c r="O25">
-        <v>0.05764165243362517</v>
+        <v>0.03255403198709266</v>
       </c>
       <c r="P25">
-        <v>0.0391805794024379</v>
+        <v>0.02194077488722859</v>
       </c>
       <c r="Q25">
-        <v>0.084890656455</v>
+        <v>0.2080658086698333</v>
       </c>
       <c r="R25">
-        <v>0.5093439387300001</v>
+        <v>1.248394852019</v>
       </c>
       <c r="S25">
-        <v>5.097932485489972E-06</v>
+        <v>1.695300685319624E-05</v>
       </c>
       <c r="T25">
-        <v>3.625713257443931E-06</v>
+        <v>1.147632670229879E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.06163166666666667</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H26">
-        <v>0.184895</v>
+        <v>0.930769</v>
       </c>
       <c r="I26">
-        <v>8.844181716268947E-05</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J26">
-        <v>9.253853089314783E-05</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>8.818982666666667</v>
+        <v>8.236647</v>
       </c>
       <c r="N26">
-        <v>26.456948</v>
+        <v>24.709941</v>
       </c>
       <c r="O26">
-        <v>0.3690616607316352</v>
+        <v>0.3998298154549608</v>
       </c>
       <c r="P26">
-        <v>0.3762916855829809</v>
+        <v>0.4042161034420106</v>
       </c>
       <c r="Q26">
-        <v>0.5435286000511111</v>
+        <v>2.555471897181</v>
       </c>
       <c r="R26">
-        <v>4.89175740046</v>
+        <v>22.999247074629</v>
       </c>
       <c r="S26">
-        <v>3.264048392018582E-05</v>
+        <v>0.0002082174522715856</v>
       </c>
       <c r="T26">
-        <v>3.482147977115534E-05</v>
+        <v>0.000211428998532361</v>
       </c>
     </row>
   </sheetData>
